--- a/25 Rumus Wajib di Excel - File Latihan (1).xlsx
+++ b/25 Rumus Wajib di Excel - File Latihan (1).xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
     <sheet name="Bag. 1" sheetId="1" r:id="rId2"/>
     <sheet name="Bag. 2" sheetId="2" r:id="rId3"/>
-    <sheet name=" " sheetId="4" r:id="rId4"/>
+    <sheet name="Bag.3" sheetId="4" r:id="rId4"/>
     <sheet name="Bag. 4" sheetId="5" r:id="rId5"/>
     <sheet name="Bag. 5" sheetId="6" r:id="rId6"/>
     <sheet name="Data Referensi" sheetId="7" r:id="rId7"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="128">
   <si>
     <t>Nama Murid</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>Juned M.</t>
+  </si>
+  <si>
+    <t>andi</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +450,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -599,6 +609,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,7 +986,7 @@
       <c r="B2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="31" t="s">
         <v>40</v>
       </c>
     </row>
@@ -975,7 +997,7 @@
       <c r="B3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -984,7 +1006,7 @@
       <c r="B4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -993,7 +1015,7 @@
       <c r="B5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1002,7 +1024,7 @@
       <c r="B6" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1011,7 +1033,7 @@
       <c r="B7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="31"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1020,7 +1042,7 @@
       <c r="B8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1029,7 +1051,7 @@
       <c r="B9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -1038,7 +1060,7 @@
       <c r="B10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="33" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1049,7 +1071,7 @@
       <c r="B11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="34"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
@@ -1058,7 +1080,7 @@
       <c r="B12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="34"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1068,7 +1090,7 @@
       <c r="B13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="35"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1077,7 +1099,7 @@
       <c r="B14" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="31" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1088,7 +1110,7 @@
       <c r="B15" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="31"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1097,7 +1119,7 @@
       <c r="B16" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="31"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1106,7 +1128,7 @@
       <c r="B17" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="31"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1115,7 +1137,7 @@
       <c r="B18" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="31"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
@@ -1124,7 +1146,7 @@
       <c r="B19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="32" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1135,7 +1157,7 @@
       <c r="B20" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="32"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -1144,7 +1166,7 @@
       <c r="B21" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="32"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
@@ -1153,7 +1175,7 @@
       <c r="B22" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="32"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
@@ -1162,7 +1184,7 @@
       <c r="B23" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="26"/>
+      <c r="C23" s="32"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
@@ -1171,7 +1193,7 @@
       <c r="B24" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="26"/>
+      <c r="C24" s="32"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1180,7 +1202,7 @@
       <c r="B25" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="31" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1191,7 +1213,7 @@
       <c r="B26" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="31"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1200,7 +1222,7 @@
       <c r="B27" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1220,7 +1242,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1421,7 @@
         <v>9666666.666666666</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F5&gt;=30000000,"bagus","tidak bagus")</f>
         <v>tidak bagus</v>
       </c>
       <c r="I5" s="6">
@@ -1534,70 +1556,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="39"/>
       <c r="F1" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="32" t="str">
+      <c r="B2" s="36"/>
+      <c r="C2" s="38" t="str">
         <f>TRIM(C1)</f>
         <v>NaMa KEPala SekOLAH</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="38"/>
       <c r="F2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="str">
-        <f>LOWER(C1)</f>
-        <v xml:space="preserve">  nama    kepala sekolah     </v>
-      </c>
-      <c r="D3" s="31"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="str">
+        <f>LOWER(C2)</f>
+        <v>nama kepala sekolah</v>
+      </c>
+      <c r="D3" s="37"/>
       <c r="F3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31" t="str">
-        <f>UPPER(C1)</f>
-        <v xml:space="preserve">  NAMA    KEPALA SEKOLAH     </v>
-      </c>
-      <c r="D4" s="31"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="str">
+        <f>UPPER(C3)</f>
+        <v>NAMA KEPALA SEKOLAH</v>
+      </c>
+      <c r="D4" s="37"/>
       <c r="F4" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="str">
-        <f>PROPER(C1)</f>
-        <v xml:space="preserve">  Nama    Kepala Sekolah     </v>
-      </c>
-      <c r="D5" s="31"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="str">
+        <f>PROPER(C4)</f>
+        <v>Nama Kepala Sekolah</v>
+      </c>
+      <c r="D5" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1620,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1684,10 @@
       <c r="C2" s="2">
         <v>1990</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="str">
+        <f>CONCATENATE(C2,"-",A2)</f>
+        <v>1990-HR</v>
+      </c>
       <c r="E2" s="2">
         <f>LEN(B2)</f>
         <v>5</v>
@@ -1681,9 +1706,12 @@
       <c r="C3" s="2">
         <v>1994</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="28" t="str">
+        <f t="shared" ref="D3:D5" si="0">CONCATENATE(C3,"-",A3)</f>
+        <v>1994-Finance</v>
+      </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E5" si="0">LEN(B3)</f>
+        <f t="shared" ref="E3:E5" si="1">LEN(B3)</f>
         <v>5</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -1700,9 +1728,12 @@
       <c r="C4" s="2">
         <v>1989</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1989-Sales</v>
+      </c>
       <c r="E4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -1719,9 +1750,12 @@
       <c r="C5" s="2">
         <v>1997</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>1997-HR</v>
+      </c>
       <c r="E5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -1753,16 +1787,16 @@
         <v>86</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>LEFT(A10,3)</f>
-        <v>Rub</v>
+        <f>LEFT(B10,3)</f>
+        <v>123</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>MID(A10,4,7)</f>
-        <v>en</v>
+        <f>MID(B10,4,7)</f>
+        <v>4560101</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f>RIGHT(A10,2)</f>
-        <v>en</v>
+        <f>RIGHT(B10,2)</f>
+        <v>01</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1772,17 +1806,17 @@
       <c r="B11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="6" t="str">
-        <f t="shared" ref="C11:C13" si="1">LEFT(A11,3)</f>
-        <v>Dis</v>
-      </c>
-      <c r="D11" s="6" t="str">
-        <f t="shared" ref="D11:D13" si="2">MID(A11,4,7)</f>
-        <v>ti</v>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f t="shared" ref="E11:E13" si="3">RIGHT(A11,2)</f>
-        <v>ti</v>
+      <c r="C11" s="26" t="str">
+        <f t="shared" ref="C11:C13" si="2">LEFT(B11,3)</f>
+        <v>288</v>
+      </c>
+      <c r="D11" s="26" t="str">
+        <f t="shared" ref="D11:D13" si="3">MID(B11,4,7)</f>
+        <v>5670208</v>
+      </c>
+      <c r="E11" s="26" t="str">
+        <f t="shared" ref="E11:E13" si="4">RIGHT(B11,2)</f>
+        <v>02</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1792,17 +1826,17 @@
       <c r="B12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Jun</v>
-      </c>
-      <c r="D12" s="6" t="str">
+      <c r="C12" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>ed</v>
-      </c>
-      <c r="E12" s="6" t="str">
+        <v>139</v>
+      </c>
+      <c r="D12" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>ed</v>
+        <v>8780204</v>
+      </c>
+      <c r="E12" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>03</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1812,17 +1846,17 @@
       <c r="B13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>Ary</v>
-      </c>
-      <c r="D13" s="6" t="str">
+      <c r="C13" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>anne</v>
-      </c>
-      <c r="E13" s="6" t="str">
+        <v>456</v>
+      </c>
+      <c r="D13" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>ne</v>
+        <v>1231912</v>
+      </c>
+      <c r="E13" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1840,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1929,7 @@
         <v>57.26</v>
       </c>
       <c r="C2" s="11">
-        <f>ROUND(B2,0)</f>
+        <f>ROUNDDOWN(B2,0)</f>
         <v>57</v>
       </c>
       <c r="D2" s="11">
@@ -1913,16 +1947,16 @@
         <v>1150</v>
       </c>
       <c r="I2" s="3">
-        <f>ROUNDDOWN(H2,0)</f>
-        <v>1150</v>
+        <f>FLOOR(H2,100)</f>
+        <v>1100</v>
       </c>
       <c r="J2" s="21">
-        <f>ROUNDUP(H2,0)</f>
-        <v>1150</v>
-      </c>
-      <c r="K2">
-        <f>ROUND(H2,1)</f>
-        <v>1150</v>
+        <f>CEILING(H2,100)</f>
+        <v>1200</v>
+      </c>
+      <c r="K2" s="27">
+        <f>MROUND(H2,100)</f>
+        <v>1200</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>82</v>
@@ -1936,7 +1970,7 @@
         <v>84.15</v>
       </c>
       <c r="C3" s="11">
-        <f t="shared" ref="C3:C11" si="0">ROUND(B3,0)</f>
+        <f t="shared" ref="C3:C11" si="0">ROUNDDOWN(B3,0)</f>
         <v>84</v>
       </c>
       <c r="D3" s="11">
@@ -1954,14 +1988,14 @@
         <v>560</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I6" si="3">ROUNDDOWN(H3,0)</f>
-        <v>560</v>
+        <f t="shared" ref="I3:I6" si="3">FLOOR(H3,100)</f>
+        <v>500</v>
       </c>
       <c r="J3" s="21">
-        <f t="shared" ref="J3:J6" si="4">ROUNDUP(H3,0)</f>
-        <v>560</v>
-      </c>
-      <c r="K3">
+        <f t="shared" ref="J3:J6" si="4">CEILING(H3,100)</f>
+        <v>600</v>
+      </c>
+      <c r="K3" s="27">
         <f t="shared" ref="K3:K6" si="5">ROUND(H3,1)</f>
         <v>560</v>
       </c>
@@ -1978,7 +2012,7 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="1"/>
@@ -1996,13 +2030,13 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="J4" s="21">
         <f t="shared" si="4"/>
-        <v>86</v>
-      </c>
-      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="K4" s="27">
         <f t="shared" si="5"/>
         <v>86</v>
       </c>
@@ -2037,13 +2071,13 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J5" s="21">
         <f t="shared" si="4"/>
-        <v>125</v>
-      </c>
-      <c r="K5">
+        <v>200</v>
+      </c>
+      <c r="K5" s="27">
         <f t="shared" si="5"/>
         <v>125</v>
       </c>
@@ -2078,13 +2112,13 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="3"/>
-        <v>968</v>
+        <v>900</v>
       </c>
       <c r="J6" s="21">
         <f t="shared" si="4"/>
-        <v>968</v>
-      </c>
-      <c r="K6">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="27">
         <f t="shared" si="5"/>
         <v>968</v>
       </c>
@@ -2101,7 +2135,7 @@
       </c>
       <c r="C7" s="11">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="1"/>
@@ -2210,7 +2244,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,9 +2280,18 @@
       <c r="B2" s="16">
         <v>106</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="2" t="str">
+        <f>VLOOKUP(B2,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Fiona</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>VLOOKUP(B2,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <v>Palembang</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>HLOOKUP(D2,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
       <c r="H2" s="7" t="s">
         <v>121</v>
       </c>
@@ -2260,9 +2303,18 @@
       <c r="B3" s="16">
         <v>102</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="27" t="str">
+        <f>VLOOKUP(B3,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Budi</v>
+      </c>
+      <c r="D3" s="27" t="str">
+        <f>VLOOKUP(B3,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <v>Jakarta</v>
+      </c>
+      <c r="E3" s="27" t="str">
+        <f>HLOOKUP(D3,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>1 Hari</v>
+      </c>
       <c r="H3" s="7" t="s">
         <v>122</v>
       </c>
@@ -2274,9 +2326,18 @@
       <c r="B4" s="16">
         <v>104</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="27" t="str">
+        <f>VLOOKUP(B4,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Dewi</v>
+      </c>
+      <c r="D4" s="27" t="str">
+        <f>VLOOKUP(B4,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <v>Surabaya</v>
+      </c>
+      <c r="E4" s="27" t="str">
+        <f>HLOOKUP(D4,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>3 Hari</v>
+      </c>
       <c r="H4" s="7" t="s">
         <v>123</v>
       </c>
@@ -2288,9 +2349,18 @@
       <c r="B5" s="16">
         <v>105</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="27" t="str">
+        <f>VLOOKUP(B5,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Eko</v>
+      </c>
+      <c r="D5" s="27" t="str">
+        <f>VLOOKUP(B5,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <v>Jakarta</v>
+      </c>
+      <c r="E5" s="27" t="str">
+        <f>HLOOKUP(D5,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>1 Hari</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
@@ -2299,9 +2369,18 @@
       <c r="B6" s="16">
         <v>110</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="27" t="str">
+        <f>VLOOKUP(B6,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Juned</v>
+      </c>
+      <c r="D6" s="27" t="str">
+        <f>VLOOKUP(B6,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <v>Bandung</v>
+      </c>
+      <c r="E6" s="27" t="str">
+        <f>HLOOKUP(D6,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
@@ -2310,9 +2389,18 @@
       <c r="B7" s="16">
         <v>103</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="27" t="str">
+        <f>VLOOKUP(B7,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Clara</v>
+      </c>
+      <c r="D7" s="27" t="str">
+        <f>VLOOKUP(B7,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <v>Palembang</v>
+      </c>
+      <c r="E7" s="27" t="str">
+        <f>HLOOKUP(D7,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
@@ -2321,9 +2409,18 @@
       <c r="B8" s="16">
         <v>108</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="27" t="str">
+        <f>VLOOKUP(B8,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Hesti</v>
+      </c>
+      <c r="D8" s="27" t="str">
+        <f>VLOOKUP(B8,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <v>Bandung</v>
+      </c>
+      <c r="E8" s="27" t="str">
+        <f>HLOOKUP(D8,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
@@ -2332,9 +2429,18 @@
       <c r="B9" s="16">
         <v>109</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="27" t="str">
+        <f>VLOOKUP(B9,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>Igna</v>
+      </c>
+      <c r="D9" s="27" t="str">
+        <f>VLOOKUP(B9,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <v>Jakarta</v>
+      </c>
+      <c r="E9" s="27" t="str">
+        <f>HLOOKUP(D9,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>1 Hari</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
@@ -2343,9 +2449,18 @@
       <c r="B10" s="16">
         <v>101</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="27" t="str">
+        <f>VLOOKUP(B10,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>andi</v>
+      </c>
+      <c r="D10" s="27" t="str">
+        <f>VLOOKUP(B10,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <v>Bandung</v>
+      </c>
+      <c r="E10" s="27" t="str">
+        <f>HLOOKUP(D10,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>2 Hari</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
@@ -2354,9 +2469,18 @@
       <c r="B11" s="16">
         <v>112</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="27" t="e">
+        <f>VLOOKUP(B11,'Data Referensi'!$A$2:$D$11,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="27" t="e">
+        <f>VLOOKUP(B11,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="27" t="e">
+        <f>HLOOKUP(D11,'Data Referensi'!$B$14:$E$15,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2368,7 +2492,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,14 +2515,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>101</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>105</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -2406,13 +2530,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="25">
         <v>102</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="29" t="s">
         <v>105</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -2420,7 +2544,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="25">
         <v>103</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2434,7 +2558,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="25">
         <v>104</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -2448,7 +2572,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="25">
         <v>105</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -2462,7 +2586,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="25">
         <v>106</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -2476,7 +2600,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="25">
         <v>107</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -2490,7 +2614,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="25">
         <v>108</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -2504,7 +2628,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="25">
         <v>109</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -2518,7 +2642,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="25">
         <v>110</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -2567,5 +2691,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>